--- a/data/old_posteriors/elementary_skills/complex_model/noleak/questions-skill-model2b_noleak.xlsx
+++ b/data/old_posteriors/elementary_skills/complex_model/noleak/questions-skill-model2b_noleak.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giorgia/repositories/virtual-CAT-itas/data/old_posteriors/elementary_skills/complex_model/noleak/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96DCAF5-3C55-6844-BD4F-56569BC673AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564F0A60-F536-C74A-BEDF-AB286094B064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4300" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{3D5E00E8-EA45-C34D-85AA-17AD78DA61C2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" xr2:uid="{3D5E00E8-EA45-C34D-85AA-17AD78DA61C2}"/>
   </bookViews>
   <sheets>
     <sheet name="question-skills-complex" sheetId="17" r:id="rId1"/>
@@ -618,9 +618,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -635,6 +632,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,10 +959,10 @@
   <dimension ref="A1:NI588"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="88" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="X5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="X439" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D484" sqref="D5:AH484"/>
+      <selection pane="bottomRight" activeCell="AU447" sqref="AU447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -985,62 +985,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:373" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="38" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="39"/>
-      <c r="AN1" s="39"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="39"/>
-      <c r="AQ1" s="40"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="39"/>
     </row>
     <row r="2" spans="1:373" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1100,9 +1100,9 @@
       </c>
     </row>
     <row r="3" spans="1:373" s="3" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="18" t="s">
         <v>61</v>
       </c>
@@ -1555,9 +1555,9 @@
       <c r="NI3" s="4"/>
     </row>
     <row r="4" spans="1:373" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="21" t="s">
         <v>62</v>
       </c>
@@ -1680,7 +1680,7 @@
       </c>
     </row>
     <row r="5" spans="1:373" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="37">
+      <c r="A5" s="42">
         <v>1</v>
       </c>
       <c r="B5" s="24">
@@ -10332,7 +10332,7 @@
         <v>0</v>
       </c>
       <c r="T61" s="23">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="U61" s="23">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="V63" s="23">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="W63" s="23">
         <v>0</v>
@@ -10731,7 +10731,7 @@
         <v>0</v>
       </c>
       <c r="W64" s="23">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X64" s="23">
         <v>0</v>
@@ -13384,17 +13384,17 @@
       <c r="S82" s="23">
         <v>0</v>
       </c>
-      <c r="T82" s="23">
-        <v>0</v>
+      <c r="T82" s="28">
+        <v>0.8</v>
       </c>
       <c r="U82" s="23">
         <v>0</v>
       </c>
-      <c r="V82" s="23">
-        <v>0</v>
-      </c>
-      <c r="W82" s="23">
-        <v>0</v>
+      <c r="V82" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="W82" s="28">
+        <v>0.8</v>
       </c>
       <c r="X82" s="23">
         <v>0</v>
@@ -13513,17 +13513,17 @@
       <c r="S83" s="23">
         <v>0</v>
       </c>
-      <c r="T83" s="23">
-        <v>0</v>
+      <c r="T83" s="28">
+        <v>0.75</v>
       </c>
       <c r="U83" s="23">
         <v>0</v>
       </c>
-      <c r="V83" s="23">
-        <v>0</v>
-      </c>
-      <c r="W83" s="23">
-        <v>0</v>
+      <c r="V83" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="W83" s="28">
+        <v>0.75</v>
       </c>
       <c r="X83" s="23">
         <v>0</v>
@@ -13642,17 +13642,17 @@
       <c r="S84" s="23">
         <v>0</v>
       </c>
-      <c r="T84" s="23">
-        <v>0</v>
+      <c r="T84" s="28">
+        <v>0.7</v>
       </c>
       <c r="U84" s="23">
         <v>0</v>
       </c>
-      <c r="V84" s="23">
-        <v>0</v>
-      </c>
-      <c r="W84" s="23">
-        <v>0</v>
+      <c r="V84" s="28">
+        <v>0.7</v>
+      </c>
+      <c r="W84" s="28">
+        <v>0.7</v>
       </c>
       <c r="X84" s="23">
         <v>0</v>
@@ -67653,99 +67653,37 @@
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", S$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'paint up / down polychromatic'?</v>
       </c>
-      <c r="D460" s="2">
-        <v>0</v>
-      </c>
-      <c r="E460" s="23">
-        <v>0</v>
-      </c>
-      <c r="F460" s="23">
-        <v>0</v>
-      </c>
-      <c r="G460" s="23">
-        <v>0</v>
-      </c>
-      <c r="H460" s="23">
-        <v>0</v>
-      </c>
-      <c r="I460" s="23">
-        <v>0</v>
-      </c>
-      <c r="J460" s="23">
-        <v>0</v>
-      </c>
-      <c r="K460" s="23">
-        <v>0</v>
-      </c>
-      <c r="L460" s="23">
-        <v>0</v>
-      </c>
-      <c r="M460" s="23">
-        <v>0</v>
-      </c>
-      <c r="N460" s="23">
-        <v>0</v>
-      </c>
-      <c r="O460" s="23">
-        <v>0</v>
-      </c>
-      <c r="P460" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q460" s="23">
-        <v>0</v>
-      </c>
-      <c r="R460" s="23">
-        <v>0</v>
-      </c>
-      <c r="S460" s="28">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="T460" s="23">
-        <v>0</v>
-      </c>
-      <c r="U460" s="23">
-        <v>0</v>
-      </c>
-      <c r="V460" s="23">
-        <v>0</v>
-      </c>
-      <c r="W460" s="23">
-        <v>0</v>
-      </c>
-      <c r="X460" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y460" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z460" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA460" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB460" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC460" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD460" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE460" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF460" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG460" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH460" s="23">
-        <v>0</v>
-      </c>
+      <c r="D460" s="2"/>
+      <c r="E460" s="23"/>
+      <c r="F460" s="23"/>
+      <c r="G460" s="23"/>
+      <c r="H460" s="23"/>
+      <c r="I460" s="23"/>
+      <c r="J460" s="23"/>
+      <c r="K460" s="23"/>
+      <c r="L460" s="23"/>
+      <c r="M460" s="23"/>
+      <c r="N460" s="23"/>
+      <c r="O460" s="23"/>
+      <c r="P460" s="23"/>
+      <c r="Q460" s="23"/>
+      <c r="R460" s="23"/>
+      <c r="S460" s="28"/>
+      <c r="T460" s="23"/>
+      <c r="U460" s="23"/>
+      <c r="V460" s="23"/>
+      <c r="W460" s="23"/>
+      <c r="X460" s="23"/>
+      <c r="Y460" s="23"/>
+      <c r="Z460" s="23"/>
+      <c r="AA460" s="23"/>
+      <c r="AB460" s="23"/>
+      <c r="AC460" s="23"/>
+      <c r="AD460" s="23"/>
+      <c r="AE460" s="23"/>
+      <c r="AF460" s="23"/>
+      <c r="AG460" s="23"/>
+      <c r="AH460" s="23"/>
       <c r="AI460" s="2"/>
       <c r="AJ460" s="23"/>
       <c r="AK460" s="23"/>
@@ -67765,99 +67703,37 @@
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", T$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'paint left / right polychromatic'?</v>
       </c>
-      <c r="D461" s="2">
-        <v>0</v>
-      </c>
-      <c r="E461" s="23">
-        <v>0</v>
-      </c>
-      <c r="F461" s="23">
-        <v>0</v>
-      </c>
-      <c r="G461" s="23">
-        <v>0</v>
-      </c>
-      <c r="H461" s="23">
-        <v>0</v>
-      </c>
-      <c r="I461" s="23">
-        <v>0</v>
-      </c>
-      <c r="J461" s="23">
-        <v>0</v>
-      </c>
-      <c r="K461" s="23">
-        <v>0</v>
-      </c>
-      <c r="L461" s="23">
-        <v>0</v>
-      </c>
-      <c r="M461" s="23">
-        <v>0</v>
-      </c>
-      <c r="N461" s="23">
-        <v>0</v>
-      </c>
-      <c r="O461" s="23">
-        <v>0</v>
-      </c>
-      <c r="P461" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q461" s="23">
-        <v>0</v>
-      </c>
-      <c r="R461" s="23">
-        <v>0</v>
-      </c>
-      <c r="S461" s="23">
-        <v>0</v>
-      </c>
-      <c r="T461" s="28">
-        <v>0.45</v>
-      </c>
-      <c r="U461" s="23">
-        <v>0</v>
-      </c>
-      <c r="V461" s="23">
-        <v>0</v>
-      </c>
-      <c r="W461" s="23">
-        <v>0</v>
-      </c>
-      <c r="X461" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y461" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z461" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA461" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB461" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC461" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD461" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE461" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF461" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG461" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH461" s="23">
-        <v>0</v>
-      </c>
+      <c r="D461" s="2"/>
+      <c r="E461" s="23"/>
+      <c r="F461" s="23"/>
+      <c r="G461" s="23"/>
+      <c r="H461" s="23"/>
+      <c r="I461" s="23"/>
+      <c r="J461" s="23"/>
+      <c r="K461" s="23"/>
+      <c r="L461" s="23"/>
+      <c r="M461" s="23"/>
+      <c r="N461" s="23"/>
+      <c r="O461" s="23"/>
+      <c r="P461" s="23"/>
+      <c r="Q461" s="23"/>
+      <c r="R461" s="23"/>
+      <c r="S461" s="23"/>
+      <c r="T461" s="28"/>
+      <c r="U461" s="23"/>
+      <c r="V461" s="23"/>
+      <c r="W461" s="23"/>
+      <c r="X461" s="23"/>
+      <c r="Y461" s="23"/>
+      <c r="Z461" s="23"/>
+      <c r="AA461" s="23"/>
+      <c r="AB461" s="23"/>
+      <c r="AC461" s="23"/>
+      <c r="AD461" s="23"/>
+      <c r="AE461" s="23"/>
+      <c r="AF461" s="23"/>
+      <c r="AG461" s="23"/>
+      <c r="AH461" s="23"/>
       <c r="AI461" s="2"/>
       <c r="AJ461" s="23"/>
       <c r="AK461" s="23"/>
@@ -67877,99 +67753,37 @@
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", U$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'paint square polychromatic'?</v>
       </c>
-      <c r="D462" s="2">
-        <v>0</v>
-      </c>
-      <c r="E462" s="23">
-        <v>0</v>
-      </c>
-      <c r="F462" s="23">
-        <v>0</v>
-      </c>
-      <c r="G462" s="23">
-        <v>0</v>
-      </c>
-      <c r="H462" s="23">
-        <v>0</v>
-      </c>
-      <c r="I462" s="23">
-        <v>0</v>
-      </c>
-      <c r="J462" s="23">
-        <v>0</v>
-      </c>
-      <c r="K462" s="23">
-        <v>0</v>
-      </c>
-      <c r="L462" s="23">
-        <v>0</v>
-      </c>
-      <c r="M462" s="23">
-        <v>0</v>
-      </c>
-      <c r="N462" s="23">
-        <v>0</v>
-      </c>
-      <c r="O462" s="23">
-        <v>0</v>
-      </c>
-      <c r="P462" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q462" s="23">
-        <v>0</v>
-      </c>
-      <c r="R462" s="23">
-        <v>0</v>
-      </c>
-      <c r="S462" s="23">
-        <v>0</v>
-      </c>
-      <c r="T462" s="23">
-        <v>0</v>
-      </c>
-      <c r="U462" s="28">
-        <v>0.45</v>
-      </c>
-      <c r="V462" s="23">
-        <v>0</v>
-      </c>
-      <c r="W462" s="23">
-        <v>0</v>
-      </c>
-      <c r="X462" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y462" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z462" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA462" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB462" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC462" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD462" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE462" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF462" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG462" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH462" s="23">
-        <v>0</v>
-      </c>
+      <c r="D462" s="2"/>
+      <c r="E462" s="23"/>
+      <c r="F462" s="23"/>
+      <c r="G462" s="23"/>
+      <c r="H462" s="23"/>
+      <c r="I462" s="23"/>
+      <c r="J462" s="23"/>
+      <c r="K462" s="23"/>
+      <c r="L462" s="23"/>
+      <c r="M462" s="23"/>
+      <c r="N462" s="23"/>
+      <c r="O462" s="23"/>
+      <c r="P462" s="23"/>
+      <c r="Q462" s="23"/>
+      <c r="R462" s="23"/>
+      <c r="S462" s="23"/>
+      <c r="T462" s="23"/>
+      <c r="U462" s="28"/>
+      <c r="V462" s="23"/>
+      <c r="W462" s="23"/>
+      <c r="X462" s="23"/>
+      <c r="Y462" s="23"/>
+      <c r="Z462" s="23"/>
+      <c r="AA462" s="23"/>
+      <c r="AB462" s="23"/>
+      <c r="AC462" s="23"/>
+      <c r="AD462" s="23"/>
+      <c r="AE462" s="23"/>
+      <c r="AF462" s="23"/>
+      <c r="AG462" s="23"/>
+      <c r="AH462" s="23"/>
       <c r="AI462" s="2"/>
       <c r="AJ462" s="23"/>
       <c r="AK462" s="23"/>
@@ -67989,99 +67803,37 @@
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", V$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'paint diagonalUpLeft / diagonalDownRight polychromatic'?</v>
       </c>
-      <c r="D463" s="2">
-        <v>0</v>
-      </c>
-      <c r="E463" s="23">
-        <v>0</v>
-      </c>
-      <c r="F463" s="23">
-        <v>0</v>
-      </c>
-      <c r="G463" s="23">
-        <v>0</v>
-      </c>
-      <c r="H463" s="23">
-        <v>0</v>
-      </c>
-      <c r="I463" s="23">
-        <v>0</v>
-      </c>
-      <c r="J463" s="23">
-        <v>0</v>
-      </c>
-      <c r="K463" s="23">
-        <v>0</v>
-      </c>
-      <c r="L463" s="23">
-        <v>0</v>
-      </c>
-      <c r="M463" s="23">
-        <v>0</v>
-      </c>
-      <c r="N463" s="23">
-        <v>0</v>
-      </c>
-      <c r="O463" s="23">
-        <v>0</v>
-      </c>
-      <c r="P463" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q463" s="23">
-        <v>0</v>
-      </c>
-      <c r="R463" s="23">
-        <v>0</v>
-      </c>
-      <c r="S463" s="23">
-        <v>0</v>
-      </c>
-      <c r="T463" s="23">
-        <v>0</v>
-      </c>
-      <c r="U463" s="23">
-        <v>0</v>
-      </c>
-      <c r="V463" s="23">
-        <v>0</v>
-      </c>
-      <c r="W463" s="23">
-        <v>0</v>
-      </c>
-      <c r="X463" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y463" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z463" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA463" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB463" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC463" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD463" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE463" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF463" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG463" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH463" s="23">
-        <v>0</v>
-      </c>
+      <c r="D463" s="2"/>
+      <c r="E463" s="23"/>
+      <c r="F463" s="23"/>
+      <c r="G463" s="23"/>
+      <c r="H463" s="23"/>
+      <c r="I463" s="23"/>
+      <c r="J463" s="23"/>
+      <c r="K463" s="23"/>
+      <c r="L463" s="23"/>
+      <c r="M463" s="23"/>
+      <c r="N463" s="23"/>
+      <c r="O463" s="23"/>
+      <c r="P463" s="23"/>
+      <c r="Q463" s="23"/>
+      <c r="R463" s="23"/>
+      <c r="S463" s="23"/>
+      <c r="T463" s="23"/>
+      <c r="U463" s="23"/>
+      <c r="V463" s="23"/>
+      <c r="W463" s="23"/>
+      <c r="X463" s="23"/>
+      <c r="Y463" s="23"/>
+      <c r="Z463" s="23"/>
+      <c r="AA463" s="23"/>
+      <c r="AB463" s="23"/>
+      <c r="AC463" s="23"/>
+      <c r="AD463" s="23"/>
+      <c r="AE463" s="23"/>
+      <c r="AF463" s="23"/>
+      <c r="AG463" s="23"/>
+      <c r="AH463" s="23"/>
       <c r="AI463" s="2"/>
       <c r="AJ463" s="23"/>
       <c r="AK463" s="23"/>
@@ -68101,99 +67853,37 @@
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", W$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'paint diagonalUpRight / diagonalDownLeft polychromatic'?</v>
       </c>
-      <c r="D464" s="2">
-        <v>0</v>
-      </c>
-      <c r="E464" s="23">
-        <v>0</v>
-      </c>
-      <c r="F464" s="23">
-        <v>0</v>
-      </c>
-      <c r="G464" s="23">
-        <v>0</v>
-      </c>
-      <c r="H464" s="23">
-        <v>0</v>
-      </c>
-      <c r="I464" s="23">
-        <v>0</v>
-      </c>
-      <c r="J464" s="23">
-        <v>0</v>
-      </c>
-      <c r="K464" s="23">
-        <v>0</v>
-      </c>
-      <c r="L464" s="23">
-        <v>0</v>
-      </c>
-      <c r="M464" s="23">
-        <v>0</v>
-      </c>
-      <c r="N464" s="23">
-        <v>0</v>
-      </c>
-      <c r="O464" s="23">
-        <v>0</v>
-      </c>
-      <c r="P464" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q464" s="23">
-        <v>0</v>
-      </c>
-      <c r="R464" s="23">
-        <v>0</v>
-      </c>
-      <c r="S464" s="23">
-        <v>0</v>
-      </c>
-      <c r="T464" s="23">
-        <v>0</v>
-      </c>
-      <c r="U464" s="23">
-        <v>0</v>
-      </c>
-      <c r="V464" s="23">
-        <v>0</v>
-      </c>
-      <c r="W464" s="23">
-        <v>0</v>
-      </c>
-      <c r="X464" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y464" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z464" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA464" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB464" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC464" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD464" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE464" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF464" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG464" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH464" s="23">
-        <v>0</v>
-      </c>
+      <c r="D464" s="2"/>
+      <c r="E464" s="23"/>
+      <c r="F464" s="23"/>
+      <c r="G464" s="23"/>
+      <c r="H464" s="23"/>
+      <c r="I464" s="23"/>
+      <c r="J464" s="23"/>
+      <c r="K464" s="23"/>
+      <c r="L464" s="23"/>
+      <c r="M464" s="23"/>
+      <c r="N464" s="23"/>
+      <c r="O464" s="23"/>
+      <c r="P464" s="23"/>
+      <c r="Q464" s="23"/>
+      <c r="R464" s="23"/>
+      <c r="S464" s="23"/>
+      <c r="T464" s="23"/>
+      <c r="U464" s="23"/>
+      <c r="V464" s="23"/>
+      <c r="W464" s="23"/>
+      <c r="X464" s="23"/>
+      <c r="Y464" s="23"/>
+      <c r="Z464" s="23"/>
+      <c r="AA464" s="23"/>
+      <c r="AB464" s="23"/>
+      <c r="AC464" s="23"/>
+      <c r="AD464" s="23"/>
+      <c r="AE464" s="23"/>
+      <c r="AF464" s="23"/>
+      <c r="AG464" s="23"/>
+      <c r="AH464" s="23"/>
       <c r="AI464" s="2"/>
       <c r="AJ464" s="23"/>
       <c r="AK464" s="23"/>
@@ -68213,99 +67903,37 @@
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", X$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'paint LUpLeft / LRightDown polychromatic'?</v>
       </c>
-      <c r="D465" s="2">
-        <v>0</v>
-      </c>
-      <c r="E465" s="23">
-        <v>0</v>
-      </c>
-      <c r="F465" s="23">
-        <v>0</v>
-      </c>
-      <c r="G465" s="23">
-        <v>0</v>
-      </c>
-      <c r="H465" s="23">
-        <v>0</v>
-      </c>
-      <c r="I465" s="23">
-        <v>0</v>
-      </c>
-      <c r="J465" s="23">
-        <v>0</v>
-      </c>
-      <c r="K465" s="23">
-        <v>0</v>
-      </c>
-      <c r="L465" s="23">
-        <v>0</v>
-      </c>
-      <c r="M465" s="23">
-        <v>0</v>
-      </c>
-      <c r="N465" s="23">
-        <v>0</v>
-      </c>
-      <c r="O465" s="23">
-        <v>0</v>
-      </c>
-      <c r="P465" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q465" s="23">
-        <v>0</v>
-      </c>
-      <c r="R465" s="23">
-        <v>0</v>
-      </c>
-      <c r="S465" s="23">
-        <v>0</v>
-      </c>
-      <c r="T465" s="23">
-        <v>0</v>
-      </c>
-      <c r="U465" s="23">
-        <v>0</v>
-      </c>
-      <c r="V465" s="23">
-        <v>0</v>
-      </c>
-      <c r="W465" s="23">
-        <v>0</v>
-      </c>
-      <c r="X465" s="28">
-        <v>0.45</v>
-      </c>
-      <c r="Y465" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z465" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA465" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB465" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC465" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD465" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE465" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF465" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG465" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH465" s="23">
-        <v>0</v>
-      </c>
+      <c r="D465" s="2"/>
+      <c r="E465" s="23"/>
+      <c r="F465" s="23"/>
+      <c r="G465" s="23"/>
+      <c r="H465" s="23"/>
+      <c r="I465" s="23"/>
+      <c r="J465" s="23"/>
+      <c r="K465" s="23"/>
+      <c r="L465" s="23"/>
+      <c r="M465" s="23"/>
+      <c r="N465" s="23"/>
+      <c r="O465" s="23"/>
+      <c r="P465" s="23"/>
+      <c r="Q465" s="23"/>
+      <c r="R465" s="23"/>
+      <c r="S465" s="23"/>
+      <c r="T465" s="23"/>
+      <c r="U465" s="23"/>
+      <c r="V465" s="23"/>
+      <c r="W465" s="23"/>
+      <c r="X465" s="28"/>
+      <c r="Y465" s="23"/>
+      <c r="Z465" s="23"/>
+      <c r="AA465" s="23"/>
+      <c r="AB465" s="23"/>
+      <c r="AC465" s="23"/>
+      <c r="AD465" s="23"/>
+      <c r="AE465" s="23"/>
+      <c r="AF465" s="23"/>
+      <c r="AG465" s="23"/>
+      <c r="AH465" s="23"/>
       <c r="AI465" s="2"/>
       <c r="AJ465" s="23"/>
       <c r="AK465" s="23"/>
@@ -68325,99 +67953,37 @@
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", Y$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'paint LUpRight / LLeftDown polychromatic'?</v>
       </c>
-      <c r="D466" s="2">
-        <v>0</v>
-      </c>
-      <c r="E466" s="23">
-        <v>0</v>
-      </c>
-      <c r="F466" s="23">
-        <v>0</v>
-      </c>
-      <c r="G466" s="23">
-        <v>0</v>
-      </c>
-      <c r="H466" s="23">
-        <v>0</v>
-      </c>
-      <c r="I466" s="23">
-        <v>0</v>
-      </c>
-      <c r="J466" s="23">
-        <v>0</v>
-      </c>
-      <c r="K466" s="23">
-        <v>0</v>
-      </c>
-      <c r="L466" s="23">
-        <v>0</v>
-      </c>
-      <c r="M466" s="23">
-        <v>0</v>
-      </c>
-      <c r="N466" s="23">
-        <v>0</v>
-      </c>
-      <c r="O466" s="23">
-        <v>0</v>
-      </c>
-      <c r="P466" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q466" s="23">
-        <v>0</v>
-      </c>
-      <c r="R466" s="23">
-        <v>0</v>
-      </c>
-      <c r="S466" s="23">
-        <v>0</v>
-      </c>
-      <c r="T466" s="23">
-        <v>0</v>
-      </c>
-      <c r="U466" s="23">
-        <v>0</v>
-      </c>
-      <c r="V466" s="23">
-        <v>0</v>
-      </c>
-      <c r="W466" s="23">
-        <v>0</v>
-      </c>
-      <c r="X466" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y466" s="28">
-        <v>0.45</v>
-      </c>
-      <c r="Z466" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA466" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB466" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC466" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD466" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE466" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF466" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG466" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH466" s="23">
-        <v>0</v>
-      </c>
+      <c r="D466" s="2"/>
+      <c r="E466" s="23"/>
+      <c r="F466" s="23"/>
+      <c r="G466" s="23"/>
+      <c r="H466" s="23"/>
+      <c r="I466" s="23"/>
+      <c r="J466" s="23"/>
+      <c r="K466" s="23"/>
+      <c r="L466" s="23"/>
+      <c r="M466" s="23"/>
+      <c r="N466" s="23"/>
+      <c r="O466" s="23"/>
+      <c r="P466" s="23"/>
+      <c r="Q466" s="23"/>
+      <c r="R466" s="23"/>
+      <c r="S466" s="23"/>
+      <c r="T466" s="23"/>
+      <c r="U466" s="23"/>
+      <c r="V466" s="23"/>
+      <c r="W466" s="23"/>
+      <c r="X466" s="23"/>
+      <c r="Y466" s="28"/>
+      <c r="Z466" s="23"/>
+      <c r="AA466" s="23"/>
+      <c r="AB466" s="23"/>
+      <c r="AC466" s="23"/>
+      <c r="AD466" s="23"/>
+      <c r="AE466" s="23"/>
+      <c r="AF466" s="23"/>
+      <c r="AG466" s="23"/>
+      <c r="AH466" s="23"/>
       <c r="AI466" s="2"/>
       <c r="AJ466" s="23"/>
       <c r="AK466" s="23"/>
@@ -68437,99 +68003,37 @@
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", Z$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'paint LDownLeft / LRightUp polychromatic'?</v>
       </c>
-      <c r="D467" s="2">
-        <v>0</v>
-      </c>
-      <c r="E467" s="23">
-        <v>0</v>
-      </c>
-      <c r="F467" s="23">
-        <v>0</v>
-      </c>
-      <c r="G467" s="23">
-        <v>0</v>
-      </c>
-      <c r="H467" s="23">
-        <v>0</v>
-      </c>
-      <c r="I467" s="23">
-        <v>0</v>
-      </c>
-      <c r="J467" s="23">
-        <v>0</v>
-      </c>
-      <c r="K467" s="23">
-        <v>0</v>
-      </c>
-      <c r="L467" s="23">
-        <v>0</v>
-      </c>
-      <c r="M467" s="23">
-        <v>0</v>
-      </c>
-      <c r="N467" s="23">
-        <v>0</v>
-      </c>
-      <c r="O467" s="23">
-        <v>0</v>
-      </c>
-      <c r="P467" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q467" s="23">
-        <v>0</v>
-      </c>
-      <c r="R467" s="23">
-        <v>0</v>
-      </c>
-      <c r="S467" s="23">
-        <v>0</v>
-      </c>
-      <c r="T467" s="23">
-        <v>0</v>
-      </c>
-      <c r="U467" s="23">
-        <v>0</v>
-      </c>
-      <c r="V467" s="23">
-        <v>0</v>
-      </c>
-      <c r="W467" s="23">
-        <v>0</v>
-      </c>
-      <c r="X467" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y467" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z467" s="28">
-        <v>0.45</v>
-      </c>
-      <c r="AA467" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB467" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC467" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD467" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE467" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF467" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG467" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH467" s="23">
-        <v>0</v>
-      </c>
+      <c r="D467" s="2"/>
+      <c r="E467" s="23"/>
+      <c r="F467" s="23"/>
+      <c r="G467" s="23"/>
+      <c r="H467" s="23"/>
+      <c r="I467" s="23"/>
+      <c r="J467" s="23"/>
+      <c r="K467" s="23"/>
+      <c r="L467" s="23"/>
+      <c r="M467" s="23"/>
+      <c r="N467" s="23"/>
+      <c r="O467" s="23"/>
+      <c r="P467" s="23"/>
+      <c r="Q467" s="23"/>
+      <c r="R467" s="23"/>
+      <c r="S467" s="23"/>
+      <c r="T467" s="23"/>
+      <c r="U467" s="23"/>
+      <c r="V467" s="23"/>
+      <c r="W467" s="23"/>
+      <c r="X467" s="23"/>
+      <c r="Y467" s="23"/>
+      <c r="Z467" s="28"/>
+      <c r="AA467" s="23"/>
+      <c r="AB467" s="23"/>
+      <c r="AC467" s="23"/>
+      <c r="AD467" s="23"/>
+      <c r="AE467" s="23"/>
+      <c r="AF467" s="23"/>
+      <c r="AG467" s="23"/>
+      <c r="AH467" s="23"/>
       <c r="AI467" s="2"/>
       <c r="AJ467" s="23"/>
       <c r="AK467" s="23"/>
@@ -68549,99 +68053,37 @@
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", AA$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'paint LDownRight / LLeftUp polychromatic'?</v>
       </c>
-      <c r="D468" s="2">
-        <v>0</v>
-      </c>
-      <c r="E468" s="23">
-        <v>0</v>
-      </c>
-      <c r="F468" s="23">
-        <v>0</v>
-      </c>
-      <c r="G468" s="23">
-        <v>0</v>
-      </c>
-      <c r="H468" s="23">
-        <v>0</v>
-      </c>
-      <c r="I468" s="23">
-        <v>0</v>
-      </c>
-      <c r="J468" s="23">
-        <v>0</v>
-      </c>
-      <c r="K468" s="23">
-        <v>0</v>
-      </c>
-      <c r="L468" s="23">
-        <v>0</v>
-      </c>
-      <c r="M468" s="23">
-        <v>0</v>
-      </c>
-      <c r="N468" s="23">
-        <v>0</v>
-      </c>
-      <c r="O468" s="23">
-        <v>0</v>
-      </c>
-      <c r="P468" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q468" s="23">
-        <v>0</v>
-      </c>
-      <c r="R468" s="23">
-        <v>0</v>
-      </c>
-      <c r="S468" s="23">
-        <v>0</v>
-      </c>
-      <c r="T468" s="23">
-        <v>0</v>
-      </c>
-      <c r="U468" s="23">
-        <v>0</v>
-      </c>
-      <c r="V468" s="23">
-        <v>0</v>
-      </c>
-      <c r="W468" s="23">
-        <v>0</v>
-      </c>
-      <c r="X468" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y468" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z468" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA468" s="28">
-        <v>0.45</v>
-      </c>
-      <c r="AB468" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC468" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD468" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE468" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF468" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG468" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH468" s="23">
-        <v>0</v>
-      </c>
+      <c r="D468" s="2"/>
+      <c r="E468" s="23"/>
+      <c r="F468" s="23"/>
+      <c r="G468" s="23"/>
+      <c r="H468" s="23"/>
+      <c r="I468" s="23"/>
+      <c r="J468" s="23"/>
+      <c r="K468" s="23"/>
+      <c r="L468" s="23"/>
+      <c r="M468" s="23"/>
+      <c r="N468" s="23"/>
+      <c r="O468" s="23"/>
+      <c r="P468" s="23"/>
+      <c r="Q468" s="23"/>
+      <c r="R468" s="23"/>
+      <c r="S468" s="23"/>
+      <c r="T468" s="23"/>
+      <c r="U468" s="23"/>
+      <c r="V468" s="23"/>
+      <c r="W468" s="23"/>
+      <c r="X468" s="23"/>
+      <c r="Y468" s="23"/>
+      <c r="Z468" s="23"/>
+      <c r="AA468" s="28"/>
+      <c r="AB468" s="23"/>
+      <c r="AC468" s="23"/>
+      <c r="AD468" s="23"/>
+      <c r="AE468" s="23"/>
+      <c r="AF468" s="23"/>
+      <c r="AG468" s="23"/>
+      <c r="AH468" s="23"/>
       <c r="AI468" s="2"/>
       <c r="AJ468" s="23"/>
       <c r="AK468" s="23"/>
@@ -68661,99 +68103,37 @@
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", AB$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'paint zigzagLeftUpDown / zigzagRightUpDown polychromatic'?</v>
       </c>
-      <c r="D469" s="2">
-        <v>0</v>
-      </c>
-      <c r="E469" s="23">
-        <v>0</v>
-      </c>
-      <c r="F469" s="23">
-        <v>0</v>
-      </c>
-      <c r="G469" s="23">
-        <v>0</v>
-      </c>
-      <c r="H469" s="23">
-        <v>0</v>
-      </c>
-      <c r="I469" s="23">
-        <v>0</v>
-      </c>
-      <c r="J469" s="23">
-        <v>0</v>
-      </c>
-      <c r="K469" s="23">
-        <v>0</v>
-      </c>
-      <c r="L469" s="23">
-        <v>0</v>
-      </c>
-      <c r="M469" s="23">
-        <v>0</v>
-      </c>
-      <c r="N469" s="23">
-        <v>0</v>
-      </c>
-      <c r="O469" s="23">
-        <v>0</v>
-      </c>
-      <c r="P469" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q469" s="23">
-        <v>0</v>
-      </c>
-      <c r="R469" s="23">
-        <v>0</v>
-      </c>
-      <c r="S469" s="23">
-        <v>0</v>
-      </c>
-      <c r="T469" s="23">
-        <v>0</v>
-      </c>
-      <c r="U469" s="23">
-        <v>0</v>
-      </c>
-      <c r="V469" s="23">
-        <v>0</v>
-      </c>
-      <c r="W469" s="23">
-        <v>0</v>
-      </c>
-      <c r="X469" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y469" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z469" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA469" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB469" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC469" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD469" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE469" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF469" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG469" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH469" s="23">
-        <v>0</v>
-      </c>
+      <c r="D469" s="2"/>
+      <c r="E469" s="23"/>
+      <c r="F469" s="23"/>
+      <c r="G469" s="23"/>
+      <c r="H469" s="23"/>
+      <c r="I469" s="23"/>
+      <c r="J469" s="23"/>
+      <c r="K469" s="23"/>
+      <c r="L469" s="23"/>
+      <c r="M469" s="23"/>
+      <c r="N469" s="23"/>
+      <c r="O469" s="23"/>
+      <c r="P469" s="23"/>
+      <c r="Q469" s="23"/>
+      <c r="R469" s="23"/>
+      <c r="S469" s="23"/>
+      <c r="T469" s="23"/>
+      <c r="U469" s="23"/>
+      <c r="V469" s="23"/>
+      <c r="W469" s="23"/>
+      <c r="X469" s="23"/>
+      <c r="Y469" s="23"/>
+      <c r="Z469" s="23"/>
+      <c r="AA469" s="23"/>
+      <c r="AB469" s="23"/>
+      <c r="AC469" s="23"/>
+      <c r="AD469" s="23"/>
+      <c r="AE469" s="23"/>
+      <c r="AF469" s="23"/>
+      <c r="AG469" s="23"/>
+      <c r="AH469" s="23"/>
       <c r="AI469" s="2"/>
       <c r="AJ469" s="23"/>
       <c r="AK469" s="23"/>
@@ -68773,99 +68153,37 @@
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", AC$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'paint zigzagLeftDownUp / zigzagRightDownUp polychromatic'?</v>
       </c>
-      <c r="D470" s="2">
-        <v>0</v>
-      </c>
-      <c r="E470" s="23">
-        <v>0</v>
-      </c>
-      <c r="F470" s="23">
-        <v>0</v>
-      </c>
-      <c r="G470" s="23">
-        <v>0</v>
-      </c>
-      <c r="H470" s="23">
-        <v>0</v>
-      </c>
-      <c r="I470" s="23">
-        <v>0</v>
-      </c>
-      <c r="J470" s="23">
-        <v>0</v>
-      </c>
-      <c r="K470" s="23">
-        <v>0</v>
-      </c>
-      <c r="L470" s="23">
-        <v>0</v>
-      </c>
-      <c r="M470" s="23">
-        <v>0</v>
-      </c>
-      <c r="N470" s="23">
-        <v>0</v>
-      </c>
-      <c r="O470" s="23">
-        <v>0</v>
-      </c>
-      <c r="P470" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q470" s="23">
-        <v>0</v>
-      </c>
-      <c r="R470" s="23">
-        <v>0</v>
-      </c>
-      <c r="S470" s="23">
-        <v>0</v>
-      </c>
-      <c r="T470" s="23">
-        <v>0</v>
-      </c>
-      <c r="U470" s="23">
-        <v>0</v>
-      </c>
-      <c r="V470" s="23">
-        <v>0</v>
-      </c>
-      <c r="W470" s="23">
-        <v>0</v>
-      </c>
-      <c r="X470" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y470" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z470" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA470" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB470" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC470" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD470" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE470" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF470" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG470" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH470" s="23">
-        <v>0</v>
-      </c>
+      <c r="D470" s="2"/>
+      <c r="E470" s="23"/>
+      <c r="F470" s="23"/>
+      <c r="G470" s="23"/>
+      <c r="H470" s="23"/>
+      <c r="I470" s="23"/>
+      <c r="J470" s="23"/>
+      <c r="K470" s="23"/>
+      <c r="L470" s="23"/>
+      <c r="M470" s="23"/>
+      <c r="N470" s="23"/>
+      <c r="O470" s="23"/>
+      <c r="P470" s="23"/>
+      <c r="Q470" s="23"/>
+      <c r="R470" s="23"/>
+      <c r="S470" s="23"/>
+      <c r="T470" s="23"/>
+      <c r="U470" s="23"/>
+      <c r="V470" s="23"/>
+      <c r="W470" s="23"/>
+      <c r="X470" s="23"/>
+      <c r="Y470" s="23"/>
+      <c r="Z470" s="23"/>
+      <c r="AA470" s="23"/>
+      <c r="AB470" s="23"/>
+      <c r="AC470" s="23"/>
+      <c r="AD470" s="23"/>
+      <c r="AE470" s="23"/>
+      <c r="AF470" s="23"/>
+      <c r="AG470" s="23"/>
+      <c r="AH470" s="23"/>
       <c r="AI470" s="2"/>
       <c r="AJ470" s="23"/>
       <c r="AK470" s="23"/>
@@ -68885,99 +68203,37 @@
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", AD$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'paint zigzagUpLeftRight / zigzagDownLeftRight polychromatic'?</v>
       </c>
-      <c r="D471" s="2">
-        <v>0</v>
-      </c>
-      <c r="E471" s="23">
-        <v>0</v>
-      </c>
-      <c r="F471" s="23">
-        <v>0</v>
-      </c>
-      <c r="G471" s="23">
-        <v>0</v>
-      </c>
-      <c r="H471" s="23">
-        <v>0</v>
-      </c>
-      <c r="I471" s="23">
-        <v>0</v>
-      </c>
-      <c r="J471" s="23">
-        <v>0</v>
-      </c>
-      <c r="K471" s="23">
-        <v>0</v>
-      </c>
-      <c r="L471" s="23">
-        <v>0</v>
-      </c>
-      <c r="M471" s="23">
-        <v>0</v>
-      </c>
-      <c r="N471" s="23">
-        <v>0</v>
-      </c>
-      <c r="O471" s="23">
-        <v>0</v>
-      </c>
-      <c r="P471" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q471" s="23">
-        <v>0</v>
-      </c>
-      <c r="R471" s="23">
-        <v>0</v>
-      </c>
-      <c r="S471" s="23">
-        <v>0</v>
-      </c>
-      <c r="T471" s="23">
-        <v>0</v>
-      </c>
-      <c r="U471" s="23">
-        <v>0</v>
-      </c>
-      <c r="V471" s="23">
-        <v>0</v>
-      </c>
-      <c r="W471" s="23">
-        <v>0</v>
-      </c>
-      <c r="X471" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y471" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z471" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA471" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB471" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC471" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD471" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE471" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF471" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG471" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH471" s="23">
-        <v>0</v>
-      </c>
+      <c r="D471" s="2"/>
+      <c r="E471" s="23"/>
+      <c r="F471" s="23"/>
+      <c r="G471" s="23"/>
+      <c r="H471" s="23"/>
+      <c r="I471" s="23"/>
+      <c r="J471" s="23"/>
+      <c r="K471" s="23"/>
+      <c r="L471" s="23"/>
+      <c r="M471" s="23"/>
+      <c r="N471" s="23"/>
+      <c r="O471" s="23"/>
+      <c r="P471" s="23"/>
+      <c r="Q471" s="23"/>
+      <c r="R471" s="23"/>
+      <c r="S471" s="23"/>
+      <c r="T471" s="23"/>
+      <c r="U471" s="23"/>
+      <c r="V471" s="23"/>
+      <c r="W471" s="23"/>
+      <c r="X471" s="23"/>
+      <c r="Y471" s="23"/>
+      <c r="Z471" s="23"/>
+      <c r="AA471" s="23"/>
+      <c r="AB471" s="23"/>
+      <c r="AC471" s="23"/>
+      <c r="AD471" s="23"/>
+      <c r="AE471" s="23"/>
+      <c r="AF471" s="23"/>
+      <c r="AG471" s="23"/>
+      <c r="AH471" s="23"/>
       <c r="AI471" s="2"/>
       <c r="AJ471" s="23"/>
       <c r="AK471" s="23"/>
@@ -68997,99 +68253,37 @@
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", AE$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'paint zigzagUpRightLeft / zigzagDownRightLeft polychromatic'?</v>
       </c>
-      <c r="D472" s="2">
-        <v>0</v>
-      </c>
-      <c r="E472" s="23">
-        <v>0</v>
-      </c>
-      <c r="F472" s="23">
-        <v>0</v>
-      </c>
-      <c r="G472" s="23">
-        <v>0</v>
-      </c>
-      <c r="H472" s="23">
-        <v>0</v>
-      </c>
-      <c r="I472" s="23">
-        <v>0</v>
-      </c>
-      <c r="J472" s="23">
-        <v>0</v>
-      </c>
-      <c r="K472" s="23">
-        <v>0</v>
-      </c>
-      <c r="L472" s="23">
-        <v>0</v>
-      </c>
-      <c r="M472" s="23">
-        <v>0</v>
-      </c>
-      <c r="N472" s="23">
-        <v>0</v>
-      </c>
-      <c r="O472" s="23">
-        <v>0</v>
-      </c>
-      <c r="P472" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q472" s="23">
-        <v>0</v>
-      </c>
-      <c r="R472" s="23">
-        <v>0</v>
-      </c>
-      <c r="S472" s="23">
-        <v>0</v>
-      </c>
-      <c r="T472" s="23">
-        <v>0</v>
-      </c>
-      <c r="U472" s="23">
-        <v>0</v>
-      </c>
-      <c r="V472" s="23">
-        <v>0</v>
-      </c>
-      <c r="W472" s="23">
-        <v>0</v>
-      </c>
-      <c r="X472" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y472" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z472" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA472" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB472" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC472" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD472" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE472" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF472" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG472" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH472" s="23">
-        <v>0</v>
-      </c>
+      <c r="D472" s="2"/>
+      <c r="E472" s="23"/>
+      <c r="F472" s="23"/>
+      <c r="G472" s="23"/>
+      <c r="H472" s="23"/>
+      <c r="I472" s="23"/>
+      <c r="J472" s="23"/>
+      <c r="K472" s="23"/>
+      <c r="L472" s="23"/>
+      <c r="M472" s="23"/>
+      <c r="N472" s="23"/>
+      <c r="O472" s="23"/>
+      <c r="P472" s="23"/>
+      <c r="Q472" s="23"/>
+      <c r="R472" s="23"/>
+      <c r="S472" s="23"/>
+      <c r="T472" s="23"/>
+      <c r="U472" s="23"/>
+      <c r="V472" s="23"/>
+      <c r="W472" s="23"/>
+      <c r="X472" s="23"/>
+      <c r="Y472" s="23"/>
+      <c r="Z472" s="23"/>
+      <c r="AA472" s="23"/>
+      <c r="AB472" s="23"/>
+      <c r="AC472" s="23"/>
+      <c r="AD472" s="23"/>
+      <c r="AE472" s="23"/>
+      <c r="AF472" s="23"/>
+      <c r="AG472" s="23"/>
+      <c r="AH472" s="23"/>
       <c r="AI472" s="2"/>
       <c r="AJ472" s="23"/>
       <c r="AK472" s="23"/>
@@ -69109,99 +68303,37 @@
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", AF$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'copy'?</v>
       </c>
-      <c r="D473" s="2">
-        <v>0</v>
-      </c>
-      <c r="E473" s="23">
-        <v>0</v>
-      </c>
-      <c r="F473" s="23">
-        <v>0</v>
-      </c>
-      <c r="G473" s="23">
-        <v>0</v>
-      </c>
-      <c r="H473" s="23">
-        <v>0</v>
-      </c>
-      <c r="I473" s="23">
-        <v>0</v>
-      </c>
-      <c r="J473" s="23">
-        <v>0</v>
-      </c>
-      <c r="K473" s="23">
-        <v>0</v>
-      </c>
-      <c r="L473" s="23">
-        <v>0</v>
-      </c>
-      <c r="M473" s="23">
-        <v>0</v>
-      </c>
-      <c r="N473" s="23">
-        <v>0</v>
-      </c>
-      <c r="O473" s="23">
-        <v>0</v>
-      </c>
-      <c r="P473" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q473" s="23">
-        <v>0</v>
-      </c>
-      <c r="R473" s="23">
-        <v>0</v>
-      </c>
-      <c r="S473" s="23">
-        <v>0</v>
-      </c>
-      <c r="T473" s="23">
-        <v>0</v>
-      </c>
-      <c r="U473" s="23">
-        <v>0</v>
-      </c>
-      <c r="V473" s="23">
-        <v>0</v>
-      </c>
-      <c r="W473" s="23">
-        <v>0</v>
-      </c>
-      <c r="X473" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y473" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z473" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA473" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB473" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC473" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD473" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE473" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF473" s="28">
-        <v>0.45</v>
-      </c>
-      <c r="AG473" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH473" s="23">
-        <v>0</v>
-      </c>
+      <c r="D473" s="2"/>
+      <c r="E473" s="23"/>
+      <c r="F473" s="23"/>
+      <c r="G473" s="23"/>
+      <c r="H473" s="23"/>
+      <c r="I473" s="23"/>
+      <c r="J473" s="23"/>
+      <c r="K473" s="23"/>
+      <c r="L473" s="23"/>
+      <c r="M473" s="23"/>
+      <c r="N473" s="23"/>
+      <c r="O473" s="23"/>
+      <c r="P473" s="23"/>
+      <c r="Q473" s="23"/>
+      <c r="R473" s="23"/>
+      <c r="S473" s="23"/>
+      <c r="T473" s="23"/>
+      <c r="U473" s="23"/>
+      <c r="V473" s="23"/>
+      <c r="W473" s="23"/>
+      <c r="X473" s="23"/>
+      <c r="Y473" s="23"/>
+      <c r="Z473" s="23"/>
+      <c r="AA473" s="23"/>
+      <c r="AB473" s="23"/>
+      <c r="AC473" s="23"/>
+      <c r="AD473" s="23"/>
+      <c r="AE473" s="23"/>
+      <c r="AF473" s="28"/>
+      <c r="AG473" s="23"/>
+      <c r="AH473" s="23"/>
       <c r="AI473" s="2"/>
       <c r="AJ473" s="23"/>
       <c r="AK473" s="23"/>
@@ -69221,99 +68353,37 @@
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", AG$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'mirrorVertical'?</v>
       </c>
-      <c r="D474" s="2">
-        <v>0</v>
-      </c>
-      <c r="E474" s="23">
-        <v>0</v>
-      </c>
-      <c r="F474" s="23">
-        <v>0</v>
-      </c>
-      <c r="G474" s="23">
-        <v>0</v>
-      </c>
-      <c r="H474" s="23">
-        <v>0</v>
-      </c>
-      <c r="I474" s="23">
-        <v>0</v>
-      </c>
-      <c r="J474" s="23">
-        <v>0</v>
-      </c>
-      <c r="K474" s="23">
-        <v>0</v>
-      </c>
-      <c r="L474" s="23">
-        <v>0</v>
-      </c>
-      <c r="M474" s="23">
-        <v>0</v>
-      </c>
-      <c r="N474" s="23">
-        <v>0</v>
-      </c>
-      <c r="O474" s="23">
-        <v>0</v>
-      </c>
-      <c r="P474" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q474" s="23">
-        <v>0</v>
-      </c>
-      <c r="R474" s="23">
-        <v>0</v>
-      </c>
-      <c r="S474" s="23">
-        <v>0</v>
-      </c>
-      <c r="T474" s="23">
-        <v>0</v>
-      </c>
-      <c r="U474" s="23">
-        <v>0</v>
-      </c>
-      <c r="V474" s="23">
-        <v>0</v>
-      </c>
-      <c r="W474" s="23">
-        <v>0</v>
-      </c>
-      <c r="X474" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y474" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z474" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA474" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB474" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC474" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD474" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE474" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF474" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG474" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH474" s="23">
-        <v>0</v>
-      </c>
+      <c r="D474" s="2"/>
+      <c r="E474" s="23"/>
+      <c r="F474" s="23"/>
+      <c r="G474" s="23"/>
+      <c r="H474" s="23"/>
+      <c r="I474" s="23"/>
+      <c r="J474" s="23"/>
+      <c r="K474" s="23"/>
+      <c r="L474" s="23"/>
+      <c r="M474" s="23"/>
+      <c r="N474" s="23"/>
+      <c r="O474" s="23"/>
+      <c r="P474" s="23"/>
+      <c r="Q474" s="23"/>
+      <c r="R474" s="23"/>
+      <c r="S474" s="23"/>
+      <c r="T474" s="23"/>
+      <c r="U474" s="23"/>
+      <c r="V474" s="23"/>
+      <c r="W474" s="23"/>
+      <c r="X474" s="23"/>
+      <c r="Y474" s="23"/>
+      <c r="Z474" s="23"/>
+      <c r="AA474" s="23"/>
+      <c r="AB474" s="23"/>
+      <c r="AC474" s="23"/>
+      <c r="AD474" s="23"/>
+      <c r="AE474" s="23"/>
+      <c r="AF474" s="23"/>
+      <c r="AG474" s="23"/>
+      <c r="AH474" s="23"/>
       <c r="AI474" s="2"/>
       <c r="AJ474" s="23"/>
       <c r="AK474" s="23"/>
@@ -69333,99 +68403,37 @@
         <f xml:space="preserve"> CONCATENATE("Has the pupil used correctly, at least once, the command '", AH$3, "'?")</f>
         <v>Has the pupil used correctly, at least once, the command 'mirrorHorizontal'?</v>
       </c>
-      <c r="D475" s="2">
-        <v>0</v>
-      </c>
-      <c r="E475" s="23">
-        <v>0</v>
-      </c>
-      <c r="F475" s="23">
-        <v>0</v>
-      </c>
-      <c r="G475" s="23">
-        <v>0</v>
-      </c>
-      <c r="H475" s="23">
-        <v>0</v>
-      </c>
-      <c r="I475" s="23">
-        <v>0</v>
-      </c>
-      <c r="J475" s="23">
-        <v>0</v>
-      </c>
-      <c r="K475" s="23">
-        <v>0</v>
-      </c>
-      <c r="L475" s="23">
-        <v>0</v>
-      </c>
-      <c r="M475" s="23">
-        <v>0</v>
-      </c>
-      <c r="N475" s="23">
-        <v>0</v>
-      </c>
-      <c r="O475" s="23">
-        <v>0</v>
-      </c>
-      <c r="P475" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q475" s="23">
-        <v>0</v>
-      </c>
-      <c r="R475" s="23">
-        <v>0</v>
-      </c>
-      <c r="S475" s="23">
-        <v>0</v>
-      </c>
-      <c r="T475" s="23">
-        <v>0</v>
-      </c>
-      <c r="U475" s="23">
-        <v>0</v>
-      </c>
-      <c r="V475" s="23">
-        <v>0</v>
-      </c>
-      <c r="W475" s="23">
-        <v>0</v>
-      </c>
-      <c r="X475" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y475" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z475" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA475" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB475" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC475" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD475" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE475" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF475" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG475" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH475" s="23">
-        <v>0</v>
-      </c>
+      <c r="D475" s="2"/>
+      <c r="E475" s="23"/>
+      <c r="F475" s="23"/>
+      <c r="G475" s="23"/>
+      <c r="H475" s="23"/>
+      <c r="I475" s="23"/>
+      <c r="J475" s="23"/>
+      <c r="K475" s="23"/>
+      <c r="L475" s="23"/>
+      <c r="M475" s="23"/>
+      <c r="N475" s="23"/>
+      <c r="O475" s="23"/>
+      <c r="P475" s="23"/>
+      <c r="Q475" s="23"/>
+      <c r="R475" s="23"/>
+      <c r="S475" s="23"/>
+      <c r="T475" s="23"/>
+      <c r="U475" s="23"/>
+      <c r="V475" s="23"/>
+      <c r="W475" s="23"/>
+      <c r="X475" s="23"/>
+      <c r="Y475" s="23"/>
+      <c r="Z475" s="23"/>
+      <c r="AA475" s="23"/>
+      <c r="AB475" s="23"/>
+      <c r="AC475" s="23"/>
+      <c r="AD475" s="23"/>
+      <c r="AE475" s="23"/>
+      <c r="AF475" s="23"/>
+      <c r="AG475" s="23"/>
+      <c r="AH475" s="23"/>
       <c r="AI475" s="2"/>
       <c r="AJ475" s="23"/>
       <c r="AK475" s="23"/>
@@ -70794,16 +69802,6 @@
     <row r="588" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A285:A324"/>
-    <mergeCell ref="A325:A364"/>
-    <mergeCell ref="A365:A404"/>
-    <mergeCell ref="A405:A444"/>
-    <mergeCell ref="A445:A484"/>
-    <mergeCell ref="AI1:AQ1"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:AH1"/>
     <mergeCell ref="A205:A244"/>
     <mergeCell ref="A245:A284"/>
     <mergeCell ref="A5:A44"/>
@@ -70811,6 +69809,16 @@
     <mergeCell ref="A85:A124"/>
     <mergeCell ref="A125:A164"/>
     <mergeCell ref="A165:A204"/>
+    <mergeCell ref="AI1:AQ1"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:AH1"/>
+    <mergeCell ref="A285:A324"/>
+    <mergeCell ref="A325:A364"/>
+    <mergeCell ref="A365:A404"/>
+    <mergeCell ref="A405:A444"/>
+    <mergeCell ref="A445:A484"/>
   </mergeCells>
   <conditionalFormatting sqref="AI2:AQ2">
     <cfRule type="colorScale" priority="87">
@@ -70836,7 +69844,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:AQ482 E483:AQ484 D484:D485">
+  <conditionalFormatting sqref="E483:AQ484 D484:D485 D5:AQ482">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
